--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col1a2-Cd44.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H2">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J2">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N2">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O2">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P2">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q2">
-        <v>1373.961852529226</v>
+        <v>7.805806001015998</v>
       </c>
       <c r="R2">
-        <v>12365.65667276304</v>
+        <v>70.252254009144</v>
       </c>
       <c r="S2">
-        <v>0.002611762591235657</v>
+        <v>0.0001061895741157796</v>
       </c>
       <c r="T2">
-        <v>0.002611762591235657</v>
+        <v>0.0001061895741157796</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H3">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J3">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>95.998284</v>
       </c>
       <c r="O3">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P3">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q3">
-        <v>168.207051911868</v>
+        <v>33.359233026384</v>
       </c>
       <c r="R3">
-        <v>1513.863467206812</v>
+        <v>300.233097237456</v>
       </c>
       <c r="S3">
-        <v>0.0003197446020475347</v>
+        <v>0.0004538163960825682</v>
       </c>
       <c r="T3">
-        <v>0.0003197446020475347</v>
+        <v>0.0004538163960825683</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.256564333333333</v>
+        <v>1.042494666666667</v>
       </c>
       <c r="H4">
-        <v>15.769693</v>
+        <v>3.127484</v>
       </c>
       <c r="I4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205676</v>
       </c>
       <c r="J4">
-        <v>0.003747859920520347</v>
+        <v>0.0007670466909205677</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N4">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O4">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P4">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q4">
-        <v>429.4561493437224</v>
+        <v>15.21919372711778</v>
       </c>
       <c r="R4">
-        <v>3865.105344093501</v>
+        <v>136.97274354406</v>
       </c>
       <c r="S4">
-        <v>0.0008163527272371549</v>
+        <v>0.0002070407207222197</v>
       </c>
       <c r="T4">
-        <v>0.0008163527272371549</v>
+        <v>0.0002070407207222198</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I5">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J5">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N5">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O5">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P5">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q5">
-        <v>343114.6944140538</v>
+        <v>9829.027236687647</v>
       </c>
       <c r="R5">
-        <v>3088032.249726484</v>
+        <v>88461.24513018882</v>
       </c>
       <c r="S5">
-        <v>0.6522263494610507</v>
+        <v>0.1337133175101208</v>
       </c>
       <c r="T5">
-        <v>0.6522263494610507</v>
+        <v>0.1337133175101208</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I6">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J6">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>95.998284</v>
       </c>
       <c r="O6">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P6">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q6">
         <v>42005.75955495955</v>
@@ -818,10 +818,10 @@
         <v>378051.8359946359</v>
       </c>
       <c r="S6">
-        <v>0.07984870265511933</v>
+        <v>0.5714430664777483</v>
       </c>
       <c r="T6">
-        <v>0.07984870265511933</v>
+        <v>0.5714430664777483</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3938.110352</v>
       </c>
       <c r="I7">
-        <v>0.93593996730609</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="J7">
-        <v>0.9359399673060897</v>
+        <v>0.9658609009611662</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N7">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O7">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P7">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q7">
-        <v>107246.5841573816</v>
+        <v>19163.92357750063</v>
       </c>
       <c r="R7">
-        <v>965219.257416434</v>
+        <v>172475.3121975057</v>
       </c>
       <c r="S7">
-        <v>0.2038649151899198</v>
+        <v>0.2607045169732969</v>
       </c>
       <c r="T7">
-        <v>0.2038649151899198</v>
+        <v>0.2607045169732969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H8">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I8">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J8">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>261.380203</v>
+        <v>7.487621999999999</v>
       </c>
       <c r="N8">
-        <v>784.140609</v>
+        <v>22.462866</v>
       </c>
       <c r="O8">
-        <v>0.6968677182772199</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="P8">
-        <v>0.69686771827722</v>
+        <v>0.1384395179233961</v>
       </c>
       <c r="Q8">
-        <v>22110.38469716454</v>
+        <v>339.608748159684</v>
       </c>
       <c r="R8">
-        <v>198993.4622744809</v>
+        <v>3056.478733437155</v>
       </c>
       <c r="S8">
-        <v>0.04202960622493361</v>
+        <v>0.00462001083915946</v>
       </c>
       <c r="T8">
-        <v>0.04202960622493361</v>
+        <v>0.00462001083915946</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H9">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I9">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J9">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>95.998284</v>
       </c>
       <c r="O9">
-        <v>0.08531391482826334</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="P9">
-        <v>0.08531391482826335</v>
+        <v>0.5916411627275552</v>
       </c>
       <c r="Q9">
-        <v>2706.860179342728</v>
+        <v>1451.366760355416</v>
       </c>
       <c r="R9">
-        <v>24361.74161408455</v>
+        <v>13062.30084319874</v>
       </c>
       <c r="S9">
-        <v>0.00514546757109648</v>
+        <v>0.01974427985372429</v>
       </c>
       <c r="T9">
-        <v>0.00514546757109648</v>
+        <v>0.01974427985372429</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>84.59089266666666</v>
+        <v>45.356022</v>
       </c>
       <c r="H10">
-        <v>253.772678</v>
+        <v>136.068066</v>
       </c>
       <c r="I10">
-        <v>0.06031217277338979</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="J10">
-        <v>0.06031217277338978</v>
+        <v>0.03337205234791334</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.69901900000001</v>
+        <v>14.59882166666667</v>
       </c>
       <c r="N10">
-        <v>245.097057</v>
+        <v>43.796465</v>
       </c>
       <c r="O10">
-        <v>0.2178183668945166</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="P10">
-        <v>0.2178183668945167</v>
+        <v>0.2699193193490487</v>
       </c>
       <c r="Q10">
-        <v>6910.992947200961</v>
+        <v>662.1444766874099</v>
       </c>
       <c r="R10">
-        <v>62198.93652480865</v>
+        <v>5959.300290186689</v>
       </c>
       <c r="S10">
-        <v>0.01313709897735969</v>
+        <v>0.009007761655029591</v>
       </c>
       <c r="T10">
-        <v>0.01313709897735969</v>
+        <v>0.009007761655029591</v>
       </c>
     </row>
   </sheetData>
